--- a/【タスク：４】テーブル定義一覧.xlsx
+++ b/【タスク：４】テーブル定義一覧.xlsx
@@ -16,36 +16,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="103">
   <si>
     <t>案件マスタ</t>
   </si>
   <si>
-    <t xml:space="preserve">案件番号　 </t>
-  </si>
-  <si>
     <t xml:space="preserve">利用開始日 </t>
   </si>
   <si>
     <t xml:space="preserve">利用終了日 </t>
   </si>
   <si>
-    <t xml:space="preserve">スキル　　 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">業界・業種 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">職種       </t>
-  </si>
-  <si>
     <t xml:space="preserve">ポジション </t>
   </si>
   <si>
     <t xml:space="preserve">金額　　　 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">雇用形態   </t>
   </si>
   <si>
     <t xml:space="preserve">場所       </t>
@@ -253,31 +238,242 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">varchar(200)      </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>varchar(2)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スキルアイコン1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スキルアイコン2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スキルアイコン3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スキルアイコン4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スキルアイコン5</t>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最寄り駅</t>
+    <rPh sb="0" eb="2">
+      <t>モヨ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">案件番号　 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CASE_NUMBER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>START_YMD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>END_YMD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CLIENT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CONTRACT_START</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CONTRACT_END</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UPTIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INTERVIEW_NUMBER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキル1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキル2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキル3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキル4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキル5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SKILL_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SKILL_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SKILL_3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SKILL_4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SKILL_5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">業界・業種 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INDUSTRY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">職種       </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OCCUPATION</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POSITION</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AMOUNT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">雇用形態   </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EMPLOYMENT_PATTERN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LOCATION</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NEARST_STATION</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CASE_TITLE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CASE_INFORMATION</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DETAIL_SKILL_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DETAIL_SKILL_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DETAIL_SKILL_3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DETAIL_SKILL_4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DETAIL_SKILL_5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>REMARKS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FIRST_CREATED_TIMESTAMP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LAST_UPDATED_TIMESTAMP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NAME_CODE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NAME_TYPE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CASE_MASTER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NAME_MASTER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MAINTANANCE_MASTER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MAINTANANCE_TYPE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MAINTANANCE_KEY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手入力</t>
+    <rPh sb="0" eb="1">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar(6)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar(2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">varchar(500)      </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -627,377 +823,538 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:H46"/>
+  <dimension ref="A3:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <sheetData>
-    <row r="4" spans="1:6">
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="G20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" t="s">
         <v>19</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" t="s">
+        <v>80</v>
+      </c>
+      <c r="J24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" t="s">
+        <v>81</v>
+      </c>
+      <c r="J25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="F26" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" t="s">
+        <v>82</v>
+      </c>
+      <c r="J26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" t="s">
+        <v>83</v>
+      </c>
+      <c r="J27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>84</v>
+      </c>
+      <c r="J28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>85</v>
+      </c>
+      <c r="J29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>86</v>
+      </c>
+      <c r="J30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>87</v>
+      </c>
+      <c r="J31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="F32" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" t="s">
-        <v>33</v>
-      </c>
-      <c r="F32" t="s">
-        <v>22</v>
+      <c r="G32" t="s">
+        <v>88</v>
+      </c>
+      <c r="J32" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="G33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38" t="s">
-        <v>31</v>
-      </c>
-      <c r="F38" t="s">
-        <v>22</v>
-      </c>
-      <c r="H38" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D39" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F39" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="G39" t="s">
+        <v>91</v>
+      </c>
+      <c r="H39" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D40" t="s">
-        <v>29</v>
+        <v>16</v>
+      </c>
+      <c r="F40" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" t="s">
-        <v>31</v>
-      </c>
-      <c r="F45" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
+        <v>13</v>
+      </c>
+      <c r="G46" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
